--- a/nice_2018.xlsx
+++ b/nice_2018.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>region</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>okrug</t>
+  </si>
+  <si>
+    <t>educ</t>
+  </si>
+  <si>
+    <t>fin_share</t>
+  </si>
+  <si>
+    <t>cev_share</t>
   </si>
   <si>
     <t>Республика Адыгея</t>
@@ -785,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK79"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,10 +912,19 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>2018</v>
@@ -966,7 +984,7 @@
         <v>0.2372697149999965</v>
       </c>
       <c r="U2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V2">
         <v>2754.323707422069</v>
@@ -975,12 +993,21 @@
         <v>33.04863155419289</v>
       </c>
       <c r="AK2" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL2">
+        <v>13.14566145275</v>
+      </c>
+      <c r="AM2">
+        <v>0.07598636142230882</v>
+      </c>
+      <c r="AN2">
+        <v>0.03555772040915733</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2018</v>
@@ -1040,7 +1067,7 @@
         <v>0.7899987060000058</v>
       </c>
       <c r="U3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="V3">
         <v>2743.867338057631</v>
@@ -1049,12 +1076,21 @@
         <v>29.74095369916745</v>
       </c>
       <c r="AK3" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL3">
+        <v>12.86170788718</v>
+      </c>
+      <c r="AM3">
+        <v>0.03954802259887006</v>
+      </c>
+      <c r="AN3">
+        <v>0.03107344632768362</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2018</v>
@@ -1114,7 +1150,7 @@
         <v>0.7023394269999983</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V4">
         <v>2752.946568758775</v>
@@ -1141,12 +1177,21 @@
         <v>15.2</v>
       </c>
       <c r="AK4" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL4">
+        <v>12.78014292767</v>
+      </c>
+      <c r="AM4">
+        <v>0.02733449613412127</v>
+      </c>
+      <c r="AN4">
+        <v>0.03925754301929035</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>2018</v>
@@ -1206,7 +1251,7 @@
         <v>0.5068018260000144</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V5">
         <v>2629.088326953497</v>
@@ -1233,12 +1278,21 @@
         <v>12.75</v>
       </c>
       <c r="AK5" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL5">
+        <v>13.02390087968</v>
+      </c>
+      <c r="AM5">
+        <v>0.02611770072992702</v>
+      </c>
+      <c r="AN5">
+        <v>0.03661040145985402</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>2018</v>
@@ -1298,7 +1352,7 @@
         <v>0.7361903970000014</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V6">
         <v>2664.434664393722</v>
@@ -1307,12 +1361,21 @@
         <v>28.83962087976277</v>
       </c>
       <c r="AK6" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL6">
+        <v>12.98266181863</v>
+      </c>
+      <c r="AM6">
+        <v>0.06286256723974265</v>
+      </c>
+      <c r="AN6">
+        <v>0.04456280983018669</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>2018</v>
@@ -1372,7 +1435,7 @@
         <v>0.4816096389999984</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V7">
         <v>2743.018454050573</v>
@@ -1381,12 +1444,21 @@
         <v>34.18801140132088</v>
       </c>
       <c r="AK7" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL7">
+        <v>13.11371615431</v>
+      </c>
+      <c r="AM7">
+        <v>0.0685186564385194</v>
+      </c>
+      <c r="AN7">
+        <v>0.05541073955462873</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>2018</v>
@@ -1446,7 +1518,7 @@
         <v>0.2861370699999952</v>
       </c>
       <c r="U8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="V8">
         <v>3169.789990004755</v>
@@ -1473,12 +1545,21 @@
         <v>14.3</v>
       </c>
       <c r="AK8" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL8">
+        <v>13.1172915968</v>
+      </c>
+      <c r="AM8">
+        <v>0.04308003064707109</v>
+      </c>
+      <c r="AN8">
+        <v>0.05159504074667406</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2018</v>
@@ -1538,7 +1619,7 @@
         <v>0.1023169880000125</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="V9">
         <v>2743.054740959289</v>
@@ -1547,12 +1628,21 @@
         <v>30.2681268227307</v>
       </c>
       <c r="AK9" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL9">
+        <v>13.22970010614</v>
+      </c>
+      <c r="AM9">
+        <v>0.06062447770265137</v>
+      </c>
+      <c r="AN9">
+        <v>0.04147990579655093</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>2018</v>
@@ -1612,7 +1702,7 @@
         <v>0.01700514699999189</v>
       </c>
       <c r="U10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="V10">
         <v>2836.017374515985</v>
@@ -1621,12 +1711,21 @@
         <v>36.74959938396925</v>
       </c>
       <c r="AK10" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL10">
+        <v>13.10502658367</v>
+      </c>
+      <c r="AM10">
+        <v>0.04269615734583888</v>
+      </c>
+      <c r="AN10">
+        <v>0.03653671169594737</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>2018</v>
@@ -1686,7 +1785,7 @@
         <v>0.6689622650000047</v>
       </c>
       <c r="U11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V11">
         <v>2514.614741036633</v>
@@ -1695,12 +1794,21 @@
         <v>33.50722317678341</v>
       </c>
       <c r="AK11" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL11">
+        <v>13.03878689773</v>
+      </c>
+      <c r="AM11">
+        <v>0.0313470290502318</v>
+      </c>
+      <c r="AN11">
+        <v>0.02067117519458976</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -1760,7 +1868,7 @@
         <v>0.2734002079999982</v>
       </c>
       <c r="U12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="V12">
         <v>2862.961555060763</v>
@@ -1769,12 +1877,21 @@
         <v>36.36257543474527</v>
       </c>
       <c r="AK12" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL12">
+        <v>12.93138905544</v>
+      </c>
+      <c r="AM12">
+        <v>0.05729015814169031</v>
+      </c>
+      <c r="AN12">
+        <v>0.04193940798239007</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>2018</v>
@@ -1834,7 +1951,7 @@
         <v>0.1731734920000036</v>
       </c>
       <c r="U13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V13">
         <v>2698.714129348171</v>
@@ -1861,12 +1978,21 @@
         <v>13.14</v>
       </c>
       <c r="AK13" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL13">
+        <v>13.10433314314</v>
+      </c>
+      <c r="AM13">
+        <v>0.04014115571239526</v>
+      </c>
+      <c r="AN13">
+        <v>0.02880199278652795</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>2018</v>
@@ -1926,7 +2052,7 @@
         <v>0.4299257879999914</v>
       </c>
       <c r="U14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="V14">
         <v>2887.515299931914</v>
@@ -1953,12 +2079,21 @@
         <v>8.52</v>
       </c>
       <c r="AK14" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL14">
+        <v>12.92732727666</v>
+      </c>
+      <c r="AM14">
+        <v>0.04337848427180119</v>
+      </c>
+      <c r="AN14">
+        <v>0.02809806336057316</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2018</v>
@@ -2018,7 +2153,7 @@
         <v>0.2902975250000139</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="V15">
         <v>2822.941783898726</v>
@@ -2045,12 +2180,21 @@
         <v>11.75</v>
       </c>
       <c r="AK15" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL15">
+        <v>12.99382088205</v>
+      </c>
+      <c r="AM15">
+        <v>0.05629862153678178</v>
+      </c>
+      <c r="AN15">
+        <v>0.03876074791865702</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>2018</v>
@@ -2110,7 +2254,7 @@
         <v>1.623114540000003</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V16">
         <v>2648.840711799298</v>
@@ -2119,12 +2263,21 @@
         <v>29.81065011504599</v>
       </c>
       <c r="AK16" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL16">
+        <v>12.3962445119</v>
+      </c>
+      <c r="AM16">
+        <v>0.02675402675402675</v>
+      </c>
+      <c r="AN16">
+        <v>0.02811902811902812</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2018</v>
@@ -2184,7 +2337,7 @@
         <v>1.07990796499999</v>
       </c>
       <c r="U17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V17">
         <v>2784.691440465538</v>
@@ -2211,12 +2364,21 @@
         <v>13.56</v>
       </c>
       <c r="AK17" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL17">
+        <v>12.42145053259</v>
+      </c>
+      <c r="AM17">
+        <v>0.01552935376525204</v>
+      </c>
+      <c r="AN17">
+        <v>0.02649850047245388</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2018</v>
@@ -2276,7 +2438,7 @@
         <v>0.1900459519999913</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V18">
         <v>2403.111556741929</v>
@@ -2285,12 +2447,21 @@
         <v>29.66492501021619</v>
       </c>
       <c r="AK18" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL18">
+        <v>12.9843275415</v>
+      </c>
+      <c r="AM18">
+        <v>0.05037047591906525</v>
+      </c>
+      <c r="AN18">
+        <v>0.05685380450270731</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>2018</v>
@@ -2350,7 +2521,7 @@
         <v>0.5667674169999941</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V19">
         <v>2730.180066373994</v>
@@ -2359,12 +2530,21 @@
         <v>32.87317961083118</v>
       </c>
       <c r="AK19" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL19">
+        <v>12.80635090675</v>
+      </c>
+      <c r="AM19">
+        <v>0.04494007249116098</v>
+      </c>
+      <c r="AN19">
+        <v>0.03435547352738432</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>2018</v>
@@ -2424,7 +2604,7 @@
         <v>0.3786238679999911</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V20">
         <v>2549.077863171765</v>
@@ -2433,12 +2613,21 @@
         <v>33.44180746950648</v>
       </c>
       <c r="AK20" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL20">
+        <v>13.07834863436</v>
+      </c>
+      <c r="AM20">
+        <v>0.04543468763652248</v>
+      </c>
+      <c r="AN20">
+        <v>0.0329110237367118</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>2018</v>
@@ -2498,7 +2687,7 @@
         <v>0.3986782540000036</v>
       </c>
       <c r="U21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V21">
         <v>2309.170829802548</v>
@@ -2525,12 +2714,21 @@
         <v>14.32</v>
       </c>
       <c r="AK21" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL21">
+        <v>13.3066181968</v>
+      </c>
+      <c r="AM21">
+        <v>0.07748272098945072</v>
+      </c>
+      <c r="AN21">
+        <v>0.02473626773372136</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>2018</v>
@@ -2590,7 +2788,7 @@
         <v>0.28990420800001</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V22">
         <v>2567.21044512968</v>
@@ -2617,12 +2815,21 @@
         <v>12.22</v>
       </c>
       <c r="AK22" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL22">
+        <v>13.09654781592</v>
+      </c>
+      <c r="AM22">
+        <v>0.04987899179505342</v>
+      </c>
+      <c r="AN22">
+        <v>0.06924030458650612</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>2018</v>
@@ -2682,7 +2889,7 @@
         <v>0.453344536000003</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V23">
         <v>2230.434854695024</v>
@@ -2691,12 +2898,21 @@
         <v>27.23051407399378</v>
       </c>
       <c r="AK23" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL23">
+        <v>13.23238602582</v>
+      </c>
+      <c r="AM23">
+        <v>0.0511876881900301</v>
+      </c>
+      <c r="AN23">
+        <v>0.04968216794914687</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>2018</v>
@@ -2756,7 +2972,7 @@
         <v>0.4577813869999972</v>
       </c>
       <c r="U24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V24">
         <v>2870.041046445205</v>
@@ -2783,12 +2999,21 @@
         <v>12.08</v>
       </c>
       <c r="AK24" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL24">
+        <v>12.99210615657</v>
+      </c>
+      <c r="AM24">
+        <v>0.04107411745022586</v>
+      </c>
+      <c r="AN24">
+        <v>0.05353856449723943</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -2848,7 +3073,7 @@
         <v>0.5164171730000078</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V25">
         <v>2578.087540437082</v>
@@ -2857,12 +3082,21 @@
         <v>32.18917680752176</v>
       </c>
       <c r="AK25" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL25">
+        <v>12.94640301479</v>
+      </c>
+      <c r="AM25">
+        <v>0.02056923279775472</v>
+      </c>
+      <c r="AN25">
+        <v>0.04825858464088607</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:40">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>2018</v>
@@ -2922,7 +3156,7 @@
         <v>0.3741590120000069</v>
       </c>
       <c r="U26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="V26">
         <v>2509.314425201195</v>
@@ -2931,12 +3165,21 @@
         <v>31.24343713242347</v>
       </c>
       <c r="AK26" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL26">
+        <v>12.83188904616</v>
+      </c>
+      <c r="AM26">
+        <v>0.03895465933094268</v>
+      </c>
+      <c r="AN26">
+        <v>0.05487056049516138</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>2018</v>
@@ -2996,7 +3239,7 @@
         <v>0.3279053289999894</v>
       </c>
       <c r="U27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="V27">
         <v>2534.796070187447</v>
@@ -3005,12 +3248,21 @@
         <v>31.88625681635156</v>
       </c>
       <c r="AK27" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL27">
+        <v>13.04788216873</v>
+      </c>
+      <c r="AM27">
+        <v>0.04906179036691768</v>
+      </c>
+      <c r="AN27">
+        <v>0.03143301063702643</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:40">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>2018</v>
@@ -3070,7 +3322,7 @@
         <v>0.3926417719999904</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="V28">
         <v>2596.04643114578</v>
@@ -3079,12 +3331,21 @@
         <v>34.63547913039818</v>
       </c>
       <c r="AK28" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL28">
+        <v>12.99382142318</v>
+      </c>
+      <c r="AM28">
+        <v>0.05458652277575604</v>
+      </c>
+      <c r="AN28">
+        <v>0.05596687162755678</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:40">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2018</v>
@@ -3144,7 +3405,7 @@
         <v>0.07349623499999325</v>
       </c>
       <c r="U29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="V29">
         <v>2588.864771235653</v>
@@ -3171,12 +3432,21 @@
         <v>14.43</v>
       </c>
       <c r="AK29" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL29">
+        <v>12.91583927363</v>
+      </c>
+      <c r="AM29">
+        <v>0.06061362301820315</v>
+      </c>
+      <c r="AN29">
+        <v>0.03944509688784496</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:40">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2018</v>
@@ -3236,7 +3506,7 @@
         <v>0.4585843509999847</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="V30">
         <v>2556.659043512451</v>
@@ -3263,12 +3533,21 @@
         <v>19</v>
       </c>
       <c r="AK30" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL30">
+        <v>12.81444509749</v>
+      </c>
+      <c r="AM30">
+        <v>0.03503115332665243</v>
+      </c>
+      <c r="AN30">
+        <v>0.06045488214021174</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:40">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2018</v>
@@ -3328,7 +3607,7 @@
         <v>0.08531627899999705</v>
       </c>
       <c r="U31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="V31">
         <v>2548.861834448159</v>
@@ -3337,12 +3616,21 @@
         <v>42.6601530215306</v>
       </c>
       <c r="AK31" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL31">
+        <v>13.14300245711</v>
+      </c>
+      <c r="AM31">
+        <v>0.04706879628803424</v>
+      </c>
+      <c r="AN31">
+        <v>0.04193807441777459</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:40">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>2018</v>
@@ -3402,7 +3690,7 @@
         <v>0.7066716409999998</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="V32">
         <v>2887.772013336349</v>
@@ -3411,12 +3699,21 @@
         <v>32.86894343251826</v>
       </c>
       <c r="AK32" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL32">
+        <v>12.72038218185</v>
+      </c>
+      <c r="AM32">
+        <v>0.03797250859106529</v>
+      </c>
+      <c r="AN32">
+        <v>0.05945017182130581</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>2018</v>
@@ -3476,7 +3773,7 @@
         <v>0.2658573559999979</v>
       </c>
       <c r="U33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V33">
         <v>2979.212520359905</v>
@@ -3485,12 +3782,21 @@
         <v>32.5953007013776</v>
       </c>
       <c r="AK33" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL33">
+        <v>13.33945256496</v>
+      </c>
+      <c r="AM33">
+        <v>0.05266175266175266</v>
+      </c>
+      <c r="AN33">
+        <v>0.05241605241605243</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:40">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>2018</v>
@@ -3550,7 +3856,7 @@
         <v>0.3450327649999991</v>
       </c>
       <c r="U34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V34">
         <v>2462.096482159985</v>
@@ -3559,12 +3865,21 @@
         <v>33.41406462423937</v>
       </c>
       <c r="AK34" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL34">
+        <v>13.05102770713</v>
+      </c>
+      <c r="AM34">
+        <v>0.05817225630852977</v>
+      </c>
+      <c r="AN34">
+        <v>0.06306223185865201</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:40">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>2018</v>
@@ -3624,7 +3939,7 @@
         <v>0.2217962569999798</v>
       </c>
       <c r="U35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="V35">
         <v>2606.557670001736</v>
@@ -3651,12 +3966,21 @@
         <v>12</v>
       </c>
       <c r="AK35" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL35">
+        <v>13.20484316509</v>
+      </c>
+      <c r="AM35">
+        <v>0.04504212572909916</v>
+      </c>
+      <c r="AN35">
+        <v>0.0332145171743357</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:40">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>2018</v>
@@ -3716,7 +4040,7 @@
         <v>0.2862580980000047</v>
       </c>
       <c r="U36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V36">
         <v>2771.800407075051</v>
@@ -3725,12 +4049,21 @@
         <v>34.77142413936473</v>
       </c>
       <c r="AK36" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL36">
+        <v>13.12259065142</v>
+      </c>
+      <c r="AM36">
+        <v>0.07624534056252116</v>
+      </c>
+      <c r="AN36">
+        <v>0.0626906133514063</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:40">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>2018</v>
@@ -3790,7 +4123,7 @@
         <v>0.3979014529999887</v>
       </c>
       <c r="U37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="V37">
         <v>2834.371108957816</v>
@@ -3799,12 +4132,21 @@
         <v>33.21803650278506</v>
       </c>
       <c r="AK37" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL37">
+        <v>12.93760094933</v>
+      </c>
+      <c r="AM37">
+        <v>0.07124217118997912</v>
+      </c>
+      <c r="AN37">
+        <v>0.05780271398747391</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:40">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>2018</v>
@@ -3864,7 +4206,7 @@
         <v>0.344909763000004</v>
       </c>
       <c r="U38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="V38">
         <v>2811.097735045159</v>
@@ -3873,12 +4215,21 @@
         <v>40.71796784736536</v>
       </c>
       <c r="AK38" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL38">
+        <v>13.26109460853</v>
+      </c>
+      <c r="AM38">
+        <v>0.1062095730918499</v>
+      </c>
+      <c r="AN38">
+        <v>0.06455368693402329</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:40">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>2018</v>
@@ -3938,7 +4289,7 @@
         <v>0.0332032629999901</v>
       </c>
       <c r="U39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V39">
         <v>2260.98548457577</v>
@@ -3980,12 +4331,21 @@
         <v>12.48</v>
       </c>
       <c r="AK39" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL39">
+        <v>13.82734833641</v>
+      </c>
+      <c r="AM39">
+        <v>0.09350941355609002</v>
+      </c>
+      <c r="AN39">
+        <v>0.07309558708428798</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>2018</v>
@@ -4045,7 +4405,7 @@
         <v>0.1264756700000191</v>
       </c>
       <c r="U40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V40">
         <v>2776.391514882538</v>
@@ -4054,12 +4414,21 @@
         <v>25.14531408785309</v>
       </c>
       <c r="AK40" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL40">
+        <v>13.34236358584</v>
+      </c>
+      <c r="AM40">
+        <v>0.04747257126489746</v>
+      </c>
+      <c r="AN40">
+        <v>0.05642660556171311</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:40">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>2018</v>
@@ -4119,7 +4488,7 @@
         <v>0.08202873099999408</v>
       </c>
       <c r="U41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V41">
         <v>2444.509176199822</v>
@@ -4146,12 +4515,21 @@
         <v>2.3</v>
       </c>
       <c r="AK41" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL41">
+        <v>13.12509996175</v>
+      </c>
+      <c r="AM41">
+        <v>0.03880844021514274</v>
+      </c>
+      <c r="AN41">
+        <v>0.06189491104675216</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:40">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>2018</v>
@@ -4211,7 +4589,7 @@
         <v>1.372941225000005</v>
       </c>
       <c r="U42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V42">
         <v>2670.379038745634</v>
@@ -4220,12 +4598,21 @@
         <v>33.13203905410985</v>
       </c>
       <c r="AK42" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL42">
+        <v>12.79631528537</v>
+      </c>
+      <c r="AM42">
+        <v>0.08518086347724621</v>
+      </c>
+      <c r="AN42">
+        <v>0.02917152858809802</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:40">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>2018</v>
@@ -4285,7 +4672,7 @@
         <v>0.1817457800000142</v>
       </c>
       <c r="U43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V43">
         <v>2620.738563549453</v>
@@ -4294,12 +4681,21 @@
         <v>27.22750945375034</v>
       </c>
       <c r="AK43" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL43">
+        <v>13.13966952514</v>
+      </c>
+      <c r="AM43">
+        <v>0.05223593832556798</v>
+      </c>
+      <c r="AN43">
+        <v>0.06544502617801047</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:40">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>2018</v>
@@ -4359,7 +4755,7 @@
         <v>0.2689585210000018</v>
       </c>
       <c r="U44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="V44">
         <v>2584.255551745981</v>
@@ -4368,12 +4764,21 @@
         <v>34.14191230778801</v>
       </c>
       <c r="AK44" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL44">
+        <v>12.86981867943</v>
+      </c>
+      <c r="AM44">
+        <v>0.04427298613024708</v>
+      </c>
+      <c r="AN44">
+        <v>0.04491595480848719</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:40">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>2018</v>
@@ -4433,7 +4838,7 @@
         <v>0.2749743769999924</v>
       </c>
       <c r="U45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V45">
         <v>2994.221428795632</v>
@@ -4442,12 +4847,21 @@
         <v>35.15629713662724</v>
       </c>
       <c r="AK45" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL45">
+        <v>13.01561328565</v>
+      </c>
+      <c r="AM45">
+        <v>0.04498763154584713</v>
+      </c>
+      <c r="AN45">
+        <v>0.04224141545427864</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:40">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>2018</v>
@@ -4507,7 +4921,7 @@
         <v>0.7039606290000222</v>
       </c>
       <c r="U46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V46">
         <v>2382.66116907868</v>
@@ -4516,12 +4930,21 @@
         <v>30.7186044929675</v>
       </c>
       <c r="AK46" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL46">
+        <v>12.81098170727</v>
+      </c>
+      <c r="AM46">
+        <v>0.06209380918780404</v>
+      </c>
+      <c r="AN46">
+        <v>0.06201953429643107</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:40">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>2018</v>
@@ -4581,7 +5004,7 @@
         <v>0.0117948949999942</v>
       </c>
       <c r="U47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="V47">
         <v>2685.042605537262</v>
@@ -4590,12 +5013,21 @@
         <v>31.94317352417208</v>
       </c>
       <c r="AK47" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL47">
+        <v>13.01646014349</v>
+      </c>
+      <c r="AM47">
+        <v>0.05128107366173553</v>
+      </c>
+      <c r="AN47">
+        <v>0.09421229220680187</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:40">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>2018</v>
@@ -4655,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V48">
         <v>2457.517289922232</v>
@@ -4664,12 +5096,21 @@
         <v>33.08749466459159</v>
       </c>
       <c r="AK48" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL48">
+        <v>13.32021151416</v>
+      </c>
+      <c r="AM48">
+        <v>0.05704436784165463</v>
+      </c>
+      <c r="AN48">
+        <v>0.03191371066384966</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:40">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>2018</v>
@@ -4729,7 +5170,7 @@
         <v>0.2173968150000007</v>
       </c>
       <c r="U49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V49">
         <v>2727.268730673301</v>
@@ -4738,12 +5179,21 @@
         <v>35.38534178767336</v>
       </c>
       <c r="AK49" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL49">
+        <v>13.08676953505</v>
+      </c>
+      <c r="AM49">
+        <v>0.05479772390677371</v>
+      </c>
+      <c r="AN49">
+        <v>0.04185828981214436</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:40">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>2018</v>
@@ -4803,7 +5253,7 @@
         <v>0.3483772330000079</v>
       </c>
       <c r="U50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V50">
         <v>2367.576041048711</v>
@@ -4830,12 +5280,21 @@
         <v>12.73</v>
       </c>
       <c r="AK50" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL50">
+        <v>12.85179137267</v>
+      </c>
+      <c r="AM50">
+        <v>0.05041937165331944</v>
+      </c>
+      <c r="AN50">
+        <v>0.07044022176941667</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:40">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>2018</v>
@@ -4895,7 +5354,7 @@
         <v>0.436589417999997</v>
       </c>
       <c r="U51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V51">
         <v>2450.871690033906</v>
@@ -4904,12 +5363,21 @@
         <v>27.31684023020502</v>
       </c>
       <c r="AK51" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL51">
+        <v>13.05847733864</v>
+      </c>
+      <c r="AM51">
+        <v>0.02985529322162986</v>
+      </c>
+      <c r="AN51">
+        <v>0.04834729626808835</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:40">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>2018</v>
@@ -4969,7 +5437,7 @@
         <v>0.7350448199999988</v>
       </c>
       <c r="U52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V52">
         <v>2360.751360298648</v>
@@ -4978,12 +5446,21 @@
         <v>34.79996483842697</v>
       </c>
       <c r="AK52" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL52">
+        <v>12.904724659</v>
+      </c>
+      <c r="AM52">
+        <v>0.07522290593997241</v>
+      </c>
+      <c r="AN52">
+        <v>0.06894386537737036</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:40">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>2018</v>
@@ -5043,7 +5520,7 @@
         <v>0.2371353080000063</v>
       </c>
       <c r="U53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V53">
         <v>2859.661045622941</v>
@@ -5052,12 +5529,21 @@
         <v>32.1047247794324</v>
       </c>
       <c r="AK53" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL53">
+        <v>12.97970203374</v>
+      </c>
+      <c r="AM53">
+        <v>0.04033537684817886</v>
+      </c>
+      <c r="AN53">
+        <v>0.05061305445366029</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:40">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>2018</v>
@@ -5117,7 +5603,7 @@
         <v>0.3378500950000074</v>
       </c>
       <c r="U54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V54">
         <v>2180.079304726922</v>
@@ -5126,12 +5612,21 @@
         <v>40.6479962506359</v>
       </c>
       <c r="AK54" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL54">
+        <v>13.11520692073</v>
+      </c>
+      <c r="AM54">
+        <v>0.08183568677792041</v>
+      </c>
+      <c r="AN54">
+        <v>0.0605477107402653</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:40">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>2018</v>
@@ -5191,7 +5686,7 @@
         <v>0.4265646629999935</v>
       </c>
       <c r="U55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V55">
         <v>2271.702599990449</v>
@@ -5200,12 +5695,21 @@
         <v>29.5110381412893</v>
       </c>
       <c r="AK55" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL55">
+        <v>13.32725062947</v>
+      </c>
+      <c r="AM55">
+        <v>0.054822604375196</v>
+      </c>
+      <c r="AN55">
+        <v>0.05747570005547385</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:40">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>2018</v>
@@ -5265,7 +5769,7 @@
         <v>0.004541629999991414</v>
       </c>
       <c r="U56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="V56">
         <v>2295.435911940667</v>
@@ -5292,12 +5796,21 @@
         <v>11.4</v>
       </c>
       <c r="AK56" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="AL56">
+        <v>13.5869634676</v>
+      </c>
+      <c r="AM56">
+        <v>0.06357448463632828</v>
+      </c>
+      <c r="AN56">
+        <v>0.1332166472189809</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:40">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>2018</v>
@@ -5357,7 +5870,7 @@
         <v>0.205774525999999</v>
       </c>
       <c r="U57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V57">
         <v>2775.336129375546</v>
@@ -5366,12 +5879,21 @@
         <v>38.72750032766099</v>
       </c>
       <c r="AK57" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL57">
+        <v>13.18150138298</v>
+      </c>
+      <c r="AM57">
+        <v>0.05611049875998898</v>
+      </c>
+      <c r="AN57">
+        <v>0.04594929732708733</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:40">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>2018</v>
@@ -5431,7 +5953,7 @@
         <v>0.2967742019999946</v>
       </c>
       <c r="U58" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="V58">
         <v>2642.46072482651</v>
@@ -5458,12 +5980,21 @@
         <v>12.11</v>
       </c>
       <c r="AK58" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL58">
+        <v>12.93895493002</v>
+      </c>
+      <c r="AM58">
+        <v>0.04968163538873996</v>
+      </c>
+      <c r="AN58">
+        <v>0.05521112600536194</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:40">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>2018</v>
@@ -5523,7 +6054,7 @@
         <v>0.2954561379999916</v>
       </c>
       <c r="U59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="V59">
         <v>2402.217723853179</v>
@@ -5532,12 +6063,21 @@
         <v>25.50758307942938</v>
       </c>
       <c r="AK59" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL59">
+        <v>12.95335217412</v>
+      </c>
+      <c r="AM59">
+        <v>0.03201280512204881</v>
+      </c>
+      <c r="AN59">
+        <v>0.04391756702681071</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:40">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B60">
         <v>2018</v>
@@ -5597,7 +6137,7 @@
         <v>0.4600315370000061</v>
       </c>
       <c r="U60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="V60">
         <v>2442.344616727951</v>
@@ -5606,12 +6146,21 @@
         <v>29.45510132669373</v>
       </c>
       <c r="AK60" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL60">
+        <v>13.01085281709</v>
+      </c>
+      <c r="AM60">
+        <v>0.046361438828156</v>
+      </c>
+      <c r="AN60">
+        <v>0.08007720893314571</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:40">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B61">
         <v>2018</v>
@@ -5671,7 +6220,7 @@
         <v>0.06126567699999441</v>
       </c>
       <c r="U61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="V61">
         <v>3108.92403414894</v>
@@ -5680,12 +6229,21 @@
         <v>44.05351872805508</v>
       </c>
       <c r="AK61" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="AL61">
+        <v>13.52321388861</v>
+      </c>
+      <c r="AM61">
+        <v>0.0597599804065638</v>
+      </c>
+      <c r="AN61">
+        <v>0.05314719568944403</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:40">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>2018</v>
@@ -5745,7 +6303,7 @@
         <v>0.402383441000012</v>
       </c>
       <c r="U62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="V62">
         <v>3093.355200184326</v>
@@ -5754,12 +6312,21 @@
         <v>45.54659631178291</v>
       </c>
       <c r="AK62" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL62">
+        <v>13.08225697481</v>
+      </c>
+      <c r="AM62">
+        <v>0.05373253493013972</v>
+      </c>
+      <c r="AN62">
+        <v>0.05397205588822356</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:40">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>2018</v>
@@ -5819,7 +6386,7 @@
         <v>-1.00000363545405E-09</v>
       </c>
       <c r="U63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="V63">
         <v>2228.748425146261</v>
@@ -5828,12 +6395,21 @@
         <v>29.7520598843729</v>
       </c>
       <c r="AK63" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL63">
+        <v>13.12153708149</v>
+      </c>
+      <c r="AM63">
+        <v>0.03880099916736054</v>
+      </c>
+      <c r="AN63">
+        <v>0.05045795170691092</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:40">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>2018</v>
@@ -5893,7 +6469,7 @@
         <v>0.1718602879999906</v>
       </c>
       <c r="U64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V64">
         <v>2594.361994998541</v>
@@ -5902,12 +6478,21 @@
         <v>21.80579112615176</v>
       </c>
       <c r="AK64" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL64">
+        <v>13.1931730828</v>
+      </c>
+      <c r="AM64">
+        <v>0.05226448859725598</v>
+      </c>
+      <c r="AN64">
+        <v>0.05644014132978477</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:40">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B65">
         <v>2018</v>
@@ -5967,7 +6552,7 @@
         <v>0.6083456319999954</v>
       </c>
       <c r="U65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="V65">
         <v>2888.921243498924</v>
@@ -5976,12 +6561,21 @@
         <v>37.63543566344065</v>
       </c>
       <c r="AK65" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL65">
+        <v>12.96048680742</v>
+      </c>
+      <c r="AM65">
+        <v>0.05229559266636025</v>
+      </c>
+      <c r="AN65">
+        <v>0.03171441703692354</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:40">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66">
         <v>2018</v>
@@ -6041,7 +6635,7 @@
         <v>0.2553786189999983</v>
       </c>
       <c r="U66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="V66">
         <v>2365.77903513564</v>
@@ -6050,12 +6644,21 @@
         <v>29.83893210040761</v>
       </c>
       <c r="AK66" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL66">
+        <v>13.02674062041</v>
+      </c>
+      <c r="AM66">
+        <v>0.0376798611499916</v>
+      </c>
+      <c r="AN66">
+        <v>0.04339062762443312</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:40">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>2018</v>
@@ -6115,7 +6718,7 @@
         <v>0.1131329739999956</v>
       </c>
       <c r="U67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="V67">
         <v>2835.827774001705</v>
@@ -6124,12 +6727,21 @@
         <v>38.53457816011402</v>
       </c>
       <c r="AK67" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL67">
+        <v>13.12165054412</v>
+      </c>
+      <c r="AM67">
+        <v>0.06931209053007743</v>
+      </c>
+      <c r="AN67">
+        <v>0.05337998808814771</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:40">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>2018</v>
@@ -6189,7 +6801,7 @@
         <v>0.376843952999991</v>
       </c>
       <c r="U68" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="V68">
         <v>2413.542238247167</v>
@@ -6198,12 +6810,21 @@
         <v>35.26860262786273</v>
       </c>
       <c r="AK68" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL68">
+        <v>12.96009834591</v>
+      </c>
+      <c r="AM68">
+        <v>0.01912686405878539</v>
+      </c>
+      <c r="AN68">
+        <v>0.03609250054030689</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:40">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>2018</v>
@@ -6263,7 +6884,7 @@
         <v>0.2330024219999984</v>
       </c>
       <c r="U69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V69">
         <v>3200.677556137094</v>
@@ -6290,12 +6911,21 @@
         <v>12.39</v>
       </c>
       <c r="AK69" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL69">
+        <v>13.30718962416</v>
+      </c>
+      <c r="AM69">
+        <v>0.04746674987323999</v>
+      </c>
+      <c r="AN69">
+        <v>0.04961191934162799</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:40">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>2018</v>
@@ -6355,7 +6985,7 @@
         <v>0.1426905149999982</v>
       </c>
       <c r="U70" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="V70">
         <v>2515.806296374297</v>
@@ -6364,12 +6994,21 @@
         <v>28.22773872244764</v>
       </c>
       <c r="AK70" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL70">
+        <v>12.97494068209</v>
+      </c>
+      <c r="AM70">
+        <v>0.04973708140592259</v>
+      </c>
+      <c r="AN70">
+        <v>0.0477997865021943</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:40">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>2018</v>
@@ -6429,7 +7068,7 @@
         <v>0.09562793999998576</v>
       </c>
       <c r="U71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V71">
         <v>2436.263119210596</v>
@@ -6438,12 +7077,21 @@
         <v>35.60950969512216</v>
       </c>
       <c r="AK71" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL71">
+        <v>13.0082509035</v>
+      </c>
+      <c r="AM71">
+        <v>0.06330170777988615</v>
+      </c>
+      <c r="AN71">
+        <v>0.04387096774193548</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:40">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>2018</v>
@@ -6503,7 +7151,7 @@
         <v>0.2991829850000016</v>
       </c>
       <c r="U72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="V72">
         <v>2182.850543043988</v>
@@ -6530,12 +7178,21 @@
         <v>14.93</v>
       </c>
       <c r="AK72" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL72">
+        <v>13.19924717073</v>
+      </c>
+      <c r="AM72">
+        <v>0.03300901861477631</v>
+      </c>
+      <c r="AN72">
+        <v>0.04322715358301123</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:40">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B73">
         <v>2018</v>
@@ -6595,7 +7252,7 @@
         <v>0.2827086499999893</v>
       </c>
       <c r="U73" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="V73">
         <v>2679.502153212174</v>
@@ -6640,12 +7297,21 @@
         <v>12.79</v>
       </c>
       <c r="AK73" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="AL73">
+        <v>12.7254584694</v>
+      </c>
+      <c r="AM73">
+        <v>0.03208409506398537</v>
+      </c>
+      <c r="AN73">
+        <v>0.0493601462522852</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:40">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>2018</v>
@@ -6705,7 +7371,7 @@
         <v>0.1105634070000008</v>
       </c>
       <c r="U74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="V74">
         <v>2556.425730511944</v>
@@ -6714,12 +7380,21 @@
         <v>23.13347951171843</v>
       </c>
       <c r="AK74" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL74">
+        <v>13.30296793121</v>
+      </c>
+      <c r="AM74">
+        <v>0.06321677006956195</v>
+      </c>
+      <c r="AN74">
+        <v>0.08187629253619098</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:40">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B75">
         <v>2018</v>
@@ -6779,7 +7454,7 @@
         <v>0.5042275389999986</v>
       </c>
       <c r="U75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="V75">
         <v>2386.668737673152</v>
@@ -6806,12 +7481,21 @@
         <v>14.17</v>
       </c>
       <c r="AK75" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL75">
+        <v>13.19678194863</v>
+      </c>
+      <c r="AM75">
+        <v>0.04861089698128334</v>
+      </c>
+      <c r="AN75">
+        <v>0.08539668835373566</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:40">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76">
         <v>2018</v>
@@ -6871,7 +7555,7 @@
         <v>0.1498466929999864</v>
       </c>
       <c r="U76" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="V76">
         <v>2497.026103892364</v>
@@ -6880,12 +7564,21 @@
         <v>34.47034838608881</v>
       </c>
       <c r="AK76" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="AL76">
+        <v>13.06977305243</v>
+      </c>
+      <c r="AM76">
+        <v>0.08651894451962111</v>
+      </c>
+      <c r="AN76">
+        <v>0.07315629228687416</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:40">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77">
         <v>2018</v>
@@ -6945,7 +7638,7 @@
         <v>0.1716682409999919</v>
       </c>
       <c r="U77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V77">
         <v>2569.13444923098</v>
@@ -6954,12 +7647,21 @@
         <v>47.43819694796066</v>
       </c>
       <c r="AK77" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="AL77">
+        <v>13.20783911955</v>
+      </c>
+      <c r="AM77">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="AN77">
+        <v>0.03609625668449198</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:40">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>2018</v>
@@ -7019,7 +7721,7 @@
         <v>0.408967847999989</v>
       </c>
       <c r="U78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V78">
         <v>3066.033320550919</v>
@@ -7028,12 +7730,21 @@
         <v>34.05503952542202</v>
       </c>
       <c r="AK78" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="AL78">
+        <v>13.58624314616</v>
+      </c>
+      <c r="AM78">
+        <v>0.04581440622972095</v>
+      </c>
+      <c r="AN78">
+        <v>0.05996106424399739</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:40">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79">
         <v>2018</v>
@@ -7093,7 +7804,7 @@
         <v>0.4234698930000036</v>
       </c>
       <c r="U79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V79">
         <v>2909.488946020554</v>
@@ -7120,7 +7831,16 @@
         <v>13.86</v>
       </c>
       <c r="AK79" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="AL79">
+        <v>13.11543092627</v>
+      </c>
+      <c r="AM79">
+        <v>0.0397965290245362</v>
+      </c>
+      <c r="AN79">
+        <v>0.04111310592459605</v>
       </c>
     </row>
   </sheetData>
